--- a/graph.xlsx
+++ b/graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\dnau\CSCI598C\csvsql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F9DD67-37C9-4C14-855D-1BB264B001CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EB3C3B-6F8B-4093-83AF-DAE0A921F600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="109">
   <si>
     <t>Query</t>
   </si>
@@ -343,6 +343,15 @@
   </si>
   <si>
     <t>My Implementation v1</t>
+  </si>
+  <si>
+    <t>v1_1</t>
+  </si>
+  <si>
+    <t>v2_3</t>
+  </si>
+  <si>
+    <t>SELECT * FROM small_tall WHERE col_2 &lt; 0.5 OR col_5 &lt; 0.2</t>
   </si>
 </sst>
 </file>
@@ -3021,7 +3030,7 @@
                   <c:v>SELECT * FROM small_tall WHERE col_2 &lt; 0.5 AND col_5 &gt; 0.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SELECT * FROM small_tall WHERE col_2 &lt; 0.5 OR col_5 &lt; 0.3</c:v>
+                  <c:v>SELECT * FROM small_tall WHERE col_2 &lt; 0.5 OR col_5 &lt; 0.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>SELECT col_2, col_5, col_8 FROM small_tall WHERE col_2 &lt; 0.5</c:v>
@@ -3164,7 +3173,7 @@
                   <c:v>SELECT * FROM small_tall WHERE col_2 &lt; 0.5 AND col_5 &gt; 0.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SELECT * FROM small_tall WHERE col_2 &lt; 0.5 OR col_5 &lt; 0.3</c:v>
+                  <c:v>SELECT * FROM small_tall WHERE col_2 &lt; 0.5 OR col_5 &lt; 0.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>SELECT col_2, col_5, col_8 FROM small_tall WHERE col_2 &lt; 0.5</c:v>
@@ -3307,7 +3316,7 @@
                   <c:v>SELECT * FROM small_tall WHERE col_2 &lt; 0.5 AND col_5 &gt; 0.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SELECT * FROM small_tall WHERE col_2 &lt; 0.5 OR col_5 &lt; 0.3</c:v>
+                  <c:v>SELECT * FROM small_tall WHERE col_2 &lt; 0.5 OR col_5 &lt; 0.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>SELECT col_2, col_5, col_8 FROM small_tall WHERE col_2 &lt; 0.5</c:v>
@@ -5901,7 +5910,7 @@
                   <c:v>SELECT * FROM small_tall WHERE col_2 &lt; 0.5 AND col_5 &gt; 0.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SELECT * FROM small_tall WHERE col_2 &lt; 0.5 OR col_5 &lt; 0.3</c:v>
+                  <c:v>SELECT * FROM small_tall WHERE col_2 &lt; 0.5 OR col_5 &lt; 0.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>SELECT col_2, col_5, col_8 FROM small_tall WHERE col_2 &lt; 0.5</c:v>
@@ -6044,7 +6053,7 @@
                   <c:v>SELECT * FROM small_tall WHERE col_2 &lt; 0.5 AND col_5 &gt; 0.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SELECT * FROM small_tall WHERE col_2 &lt; 0.5 OR col_5 &lt; 0.3</c:v>
+                  <c:v>SELECT * FROM small_tall WHERE col_2 &lt; 0.5 OR col_5 &lt; 0.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>SELECT col_2, col_5, col_8 FROM small_tall WHERE col_2 &lt; 0.5</c:v>
@@ -11361,10 +11370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="83" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="F53" zoomScale="83" workbookViewId="0">
+      <selection activeCell="Y69" sqref="Y69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13597,7 +13606,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -13647,7 +13656,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -13697,7 +13706,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -13747,7 +13756,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -13797,7 +13806,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -13847,7 +13856,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -13897,7 +13906,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -13947,7 +13956,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -13997,7 +14006,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -14010,8 +14019,11 @@
       <c r="P57" t="s">
         <v>71</v>
       </c>
+      <c r="V57" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -14060,8 +14072,14 @@
       <c r="S58" t="s">
         <v>105</v>
       </c>
+      <c r="V58" t="s">
+        <v>107</v>
+      </c>
+      <c r="W58" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -14110,8 +14128,14 @@
       <c r="S59">
         <v>0.01</v>
       </c>
+      <c r="V59">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="W59">
+        <v>1.3299999999999999E-2</v>
+      </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -14160,8 +14184,14 @@
       <c r="S60">
         <v>5.3999999999999999E-2</v>
       </c>
+      <c r="V60">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="W60">
+        <v>2.2000000000000001E-3</v>
+      </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -14210,8 +14240,14 @@
       <c r="S61">
         <v>0.152</v>
       </c>
+      <c r="V61">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="W61">
+        <v>8.2100000000000006E-2</v>
+      </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -14260,8 +14296,14 @@
       <c r="S62">
         <v>0.24399999999999999</v>
       </c>
+      <c r="V62">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="W62">
+        <v>0.17480000000000001</v>
+      </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -14310,8 +14352,14 @@
       <c r="S63">
         <v>0.1</v>
       </c>
+      <c r="V63">
+        <v>0.1061</v>
+      </c>
+      <c r="W63">
+        <v>9.74E-2</v>
+      </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -14360,8 +14408,14 @@
       <c r="S64">
         <v>0.12</v>
       </c>
+      <c r="V64">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="W64">
+        <v>0.1086</v>
+      </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -14410,8 +14464,14 @@
       <c r="S65">
         <v>0.12</v>
       </c>
+      <c r="V65">
+        <v>0.1137</v>
+      </c>
+      <c r="W65">
+        <v>0.1104</v>
+      </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -14460,8 +14520,14 @@
       <c r="S66">
         <v>0.15</v>
       </c>
+      <c r="V66">
+        <v>0.1258</v>
+      </c>
+      <c r="W66">
+        <v>0.1091</v>
+      </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -14510,8 +14576,14 @@
       <c r="S67">
         <v>0.154</v>
       </c>
+      <c r="V67">
+        <v>0.1439</v>
+      </c>
+      <c r="W67">
+        <v>0.1167</v>
+      </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -14549,7 +14621,7 @@
         <v>0.06</v>
       </c>
       <c r="P68" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="Q68">
         <v>13.585000000000001</v>
@@ -14560,8 +14632,14 @@
       <c r="S68">
         <v>0.184</v>
       </c>
+      <c r="V68">
+        <v>0.14749999999999999</v>
+      </c>
+      <c r="W68">
+        <v>0.12770000000000001</v>
+      </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -14610,8 +14688,14 @@
       <c r="S69">
         <v>0.14399999999999999</v>
       </c>
+      <c r="V69">
+        <v>0.1021</v>
+      </c>
+      <c r="W69">
+        <v>0.10680000000000001</v>
+      </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -14660,8 +14744,14 @@
       <c r="S70">
         <v>0.15</v>
       </c>
+      <c r="V70">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="W70">
+        <v>0.11609999999999999</v>
+      </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -14710,8 +14800,14 @@
       <c r="S71">
         <v>0.18</v>
       </c>
+      <c r="V71">
+        <v>0.11459999999999999</v>
+      </c>
+      <c r="W71">
+        <v>0.1229</v>
+      </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>67</v>
       </c>
@@ -14760,8 +14856,14 @@
       <c r="S72">
         <v>0.192</v>
       </c>
+      <c r="V72">
+        <v>0.12</v>
+      </c>
+      <c r="W72">
+        <v>0.16009999999999999</v>
+      </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -14810,8 +14912,14 @@
       <c r="S73">
         <v>0.192</v>
       </c>
+      <c r="V73">
+        <v>0.1353</v>
+      </c>
+      <c r="W73">
+        <v>0.15079999999999999</v>
+      </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>69</v>
       </c>
@@ -14859,6 +14967,12 @@
       </c>
       <c r="S74">
         <v>0.24</v>
+      </c>
+      <c r="V74">
+        <v>0.1389</v>
+      </c>
+      <c r="W74">
+        <v>0.18909999999999999</v>
       </c>
     </row>
   </sheetData>
